--- a/analysis/model_answer_result.xlsx
+++ b/analysis/model_answer_result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>model</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>20.83%</t>
+  </si>
+  <si>
+    <t>gpt-3.5-turbo</t>
   </si>
 </sst>
 </file>
@@ -833,12 +836,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1185,434 +1186,493 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="25.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.2222222222222" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="5" width="26.5555555555556" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.4444444444444" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" ht="57.6" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2">
         <v>112</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2">
         <v>54</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2">
         <v>31</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3">
         <v>42</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3">
         <v>72</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3">
         <v>35</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3">
         <v>10</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3">
         <v>12</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3">
         <v>13</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4">
         <v>92</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4">
         <v>12</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4">
         <v>47</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4">
         <v>29</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4">
         <v>0</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4">
         <v>23</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5">
         <v>15</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5">
         <v>91</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5">
         <v>17</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5">
         <v>42</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5">
         <v>29</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5">
         <v>21</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:13">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6">
         <v>23</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6">
         <v>83</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6">
         <v>26</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6">
         <v>34</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6">
         <v>25</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6">
         <v>10</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6">
         <v>15</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:13">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7">
         <v>34</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7">
         <v>75</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7">
         <v>15</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7">
         <v>23</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7">
         <v>20</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7">
         <v>8</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7">
         <v>17</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8">
         <v>93</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8">
         <v>18</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8">
         <v>43</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8">
         <v>5</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8">
         <v>27</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8">
         <v>18</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9">
         <v>29</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9">
         <v>70</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9">
         <v>14</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9">
         <v>27</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9">
         <v>23</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9">
         <v>3</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9">
         <v>13</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10">
         <v>14</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10">
         <v>93</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10">
         <v>14</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10">
         <v>45</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10">
         <v>29</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10">
         <v>19</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.4955</v>
+      </c>
+      <c r="F11">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.6333</v>
+      </c>
+      <c r="I11">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.5652</v>
+      </c>
+      <c r="L11">
+        <v>19</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.7307</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/model_answer_result.xlsx
+++ b/analysis/model_answer_result.xlsx
@@ -191,7 +191,7 @@
     <t>20.83%</t>
   </si>
   <si>
-    <t>gpt-3.5-turbo</t>
+    <t>gpt-3.5</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,13 +215,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -689,157 +682,162 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1186,494 +1184,515 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="30.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:14">
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="57.6" spans="1:14">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
+    <row r="2" ht="28.8" spans="1:14">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>112</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>54</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
+    <row r="3" ht="28.8" spans="1:14">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>42</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>25</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>10</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>12</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>13</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
+    <row r="4" ht="57.6" spans="1:14">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>92</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>47</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>23</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
+    <row r="5" ht="28.8" spans="1:14">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>91</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>17</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>42</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>29</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>21</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
+    <row r="6" ht="57.6" spans="1:14">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>23</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>83</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>26</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>34</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>25</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>10</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>15</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
+    <row r="7" ht="57.6" spans="1:14">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>34</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>75</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>15</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>23</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>9</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>20</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>8</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>17</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
+    <row r="8" ht="57.6" spans="1:14">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>93</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>18</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>43</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>5</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>27</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>8</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>18</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1">
+    <row r="9" ht="57.6" spans="1:14">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>29</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>70</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>14</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>27</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>6</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>23</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>3</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>13</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1">
+    <row r="10" ht="28.8" spans="1:14">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>14</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>93</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>14</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>45</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>29</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>5</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>19</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C11">
-        <v>56</v>
-      </c>
-      <c r="D11">
-        <v>57</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.4955</v>
-      </c>
-      <c r="F11">
+      <c r="C11" s="1">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.584</v>
+      </c>
+      <c r="F11" s="1">
         <v>38</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>22</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>0.6333</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>18</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>14</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3">
         <v>0.5652</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>19</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>7</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="3">
         <v>0.7307</v>
       </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
